--- a/NWhangtag上傳用檔案.xlsx
+++ b/NWhangtag上傳用檔案.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cindy.huang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/Desktop/peggy/rou94980-HangtagChangePage/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8203CDFB-8877-594A-AC22-1B48F2E99DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2280" windowWidth="29040" windowHeight="15840" tabRatio="747"/>
+    <workbookView xWindow="46820" yWindow="6360" windowWidth="29040" windowHeight="15840" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dodgeville" sheetId="22" r:id="rId1"/>
@@ -33,7 +34,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Dodgeville!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">PR!$6:$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="PRINT VIEW" guid="{822C5E36-B023-4422-A683-3CC2DC5375EB}" maximized="1" windowWidth="1020" windowHeight="553" activeSheetId="7"/>
   </customWorkbookViews>
@@ -1195,7 +1196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
@@ -2155,7 +2156,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2658,13 +2659,13 @@
     <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -2701,18 +2702,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="12" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2752,62 +2747,87 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="42" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="41" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="41" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="36" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="43" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="36" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2874,6 +2894,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2896,60 +2924,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="36" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="0" borderId="36" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="36" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="43" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Hyperlink 2" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal_Photo Sample Order Sheet template" xfId="5"/>
-    <cellStyle name="Normal_TAL" xfId="6"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Photo Sample Order Sheet template" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_TAL" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="7"/>
-    <cellStyle name="一般 3" xfId="8"/>
+    <cellStyle name="一般 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -2972,34 +2961,6 @@
         <extend val="0"/>
         <color indexed="10"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3113,7 +3074,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3141,49 +3108,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1183820</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1939017</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>40937</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1385" t="24366" r="57804" b="12890"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1183820" y="0"/>
-          <a:ext cx="2199822" cy="707687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -3194,7 +3118,13 @@
     <xdr:ext cx="476862" cy="6572250"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="文字方塊 3"/>
+        <xdr:cNvPr id="4" name="文字方塊 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3249,6 +3179,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1227668</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1972735</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6217539E-1948-A004-953D-CC09DF4762C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1227668" y="42333"/>
+          <a:ext cx="2374900" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3272,7 +3246,7 @@
         <xdr:cNvPr id="7173" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000051C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-0000051C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3317,7 @@
         <xdr:cNvPr id="2088" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000028080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000028080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3395,9 +3369,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3435,9 +3409,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3472,7 +3446,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3507,7 +3481,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3680,184 +3654,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="57"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:K36"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="217" customWidth="1"/>
-    <col min="2" max="4" width="13.140625" style="212" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="216" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="214" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="215" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="212" customWidth="1"/>
-    <col min="11" max="16" width="13.140625" style="214" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="213" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="212"/>
+    <col min="1" max="1" width="13.1640625" style="217" customWidth="1"/>
+    <col min="2" max="4" width="13.1640625" style="212" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="216" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="214" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="215" customWidth="1"/>
+    <col min="9" max="10" width="13.1640625" style="212" customWidth="1"/>
+    <col min="11" max="16" width="13.1640625" style="214" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="213" customWidth="1"/>
+    <col min="18" max="16384" width="9.1640625" style="212"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="225" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="229"/>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="230"/>
-    </row>
-    <row r="2" spans="1:17" s="225" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="234"/>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="227"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="230"/>
-    </row>
-    <row r="3" spans="1:17" s="225" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="229"/>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="227"/>
-      <c r="Q3" s="226"/>
-    </row>
-    <row r="4" spans="1:17" s="224" customFormat="1" ht="36" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="241" t="s">
+    <row r="1" spans="1:17" s="224" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="227"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="228"/>
+    </row>
+    <row r="2" spans="1:17" s="224" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="232"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="229"/>
+      <c r="Q2" s="228"/>
+    </row>
+    <row r="3" spans="1:17" s="224" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="227"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="Q3" s="225"/>
+    </row>
+    <row r="4" spans="1:17" s="223" customFormat="1" ht="36" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="239" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="239" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="242" t="s">
+      <c r="C4" s="240" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="242" t="s">
+      <c r="D4" s="240" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="242" t="s">
+      <c r="E4" s="240" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="243" t="s">
+      <c r="F4" s="241" t="s">
         <v>281</v>
       </c>
-      <c r="G4" s="243" t="s">
+      <c r="G4" s="241" t="s">
         <v>280</v>
       </c>
-      <c r="H4" s="241" t="s">
+      <c r="H4" s="239" t="s">
         <v>279</v>
       </c>
-      <c r="I4" s="241" t="s">
+      <c r="I4" s="239" t="s">
         <v>278</v>
       </c>
-      <c r="J4" s="244" t="s">
+      <c r="J4" s="242" t="s">
         <v>277</v>
       </c>
-      <c r="K4" s="242" t="s">
+      <c r="K4" s="240" t="s">
         <v>276</v>
       </c>
-      <c r="L4" s="242" t="s">
+      <c r="L4" s="240" t="s">
         <v>275</v>
       </c>
-      <c r="M4" s="242" t="s">
+      <c r="M4" s="240" t="s">
         <v>274</v>
       </c>
-      <c r="N4" s="242" t="s">
+      <c r="N4" s="240" t="s">
         <v>273</v>
       </c>
-      <c r="O4" s="242" t="s">
+      <c r="O4" s="240" t="s">
         <v>272</v>
       </c>
-      <c r="P4" s="242" t="s">
+      <c r="P4" s="240" t="s">
         <v>271</v>
       </c>
-      <c r="Q4" s="245" t="s">
+      <c r="Q4" s="243" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="223" customFormat="1" ht="34.5" thickTop="1">
-      <c r="A5" s="236" t="s">
+    <row r="5" spans="1:17" s="223" customFormat="1" ht="37" thickTop="1">
+      <c r="A5" s="234" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="236" t="s">
+      <c r="B5" s="234" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="237" t="s">
+      <c r="C5" s="235" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="237" t="s">
+      <c r="D5" s="235" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="237" t="s">
+      <c r="E5" s="235" t="s">
         <v>265</v>
       </c>
-      <c r="F5" s="238" t="s">
+      <c r="F5" s="236" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="238" t="s">
+      <c r="G5" s="236" t="s">
         <v>263</v>
       </c>
-      <c r="H5" s="239" t="s">
+      <c r="H5" s="237" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="239" t="s">
+      <c r="I5" s="237" t="s">
         <v>261</v>
       </c>
-      <c r="J5" s="239" t="s">
+      <c r="J5" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="238" t="s">
+      <c r="K5" s="236" t="s">
         <v>260</v>
       </c>
-      <c r="L5" s="238" t="s">
+      <c r="L5" s="236" t="s">
         <v>259</v>
       </c>
-      <c r="M5" s="238" t="s">
+      <c r="M5" s="236" t="s">
         <v>258</v>
       </c>
-      <c r="N5" s="238" t="s">
+      <c r="N5" s="236" t="s">
         <v>257</v>
       </c>
-      <c r="O5" s="238" t="s">
+      <c r="O5" s="236" t="s">
         <v>256</v>
       </c>
-      <c r="P5" s="238" t="s">
+      <c r="P5" s="236" t="s">
         <v>255</v>
       </c>
-      <c r="Q5" s="240" t="s">
+      <c r="Q5" s="238" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4073,28 +4047,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="39" type="noConversion"/>
-  <conditionalFormatting sqref="A6:E6 Q6:XFD9 G6:K9">
-    <cfRule type="expression" dxfId="17" priority="12" stopIfTrue="1">
-      <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
-      <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:P6">
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
-      <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="14" priority="9" stopIfTrue="1">
-      <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F9">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="A6:E6 G6:K9 Q6:XFD9">
+    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
       <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4103,33 +4057,33 @@
       <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="F7:F9">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:P9">
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="L6:M9">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:N9">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="N6">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7:M9">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="N7:P9">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L9">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="O6:P6">
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>AND(#REF!&lt;=0,#REF!&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4144,7 +4098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet6">
     <tabColor indexed="14"/>
   </sheetPr>
@@ -4154,15 +4108,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" thickBot="1"/>
+    <row r="1" spans="1:9" ht="14" thickBot="1"/>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="32"/>
       <c r="B2" s="39"/>
@@ -4222,7 +4176,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" thickBot="1">
+    <row r="7" spans="1:9" ht="14" thickBot="1">
       <c r="B7" s="45" t="s">
         <v>30</v>
       </c>
@@ -4403,15 +4357,15 @@
       </c>
       <c r="F30" s="44"/>
     </row>
-    <row r="31" spans="2:6" ht="13.5" thickBot="1">
+    <row r="31" spans="2:6" ht="14" thickBot="1">
       <c r="B31" s="43"/>
       <c r="F31" s="44"/>
     </row>
-    <row r="32" spans="2:6" ht="25.5">
-      <c r="B32" s="297" t="s">
+    <row r="32" spans="2:6" ht="28">
+      <c r="B32" s="293" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="298"/>
+      <c r="C32" s="294"/>
       <c r="D32" s="37" t="s">
         <v>57</v>
       </c>
@@ -4423,125 +4377,132 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="293"/>
-      <c r="C33" s="294"/>
+      <c r="B33" s="291"/>
+      <c r="C33" s="292"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="34"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="293"/>
-      <c r="C34" s="294"/>
+      <c r="B34" s="291"/>
+      <c r="C34" s="292"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="34"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="293"/>
-      <c r="C35" s="294"/>
+      <c r="B35" s="291"/>
+      <c r="C35" s="292"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="34"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="293"/>
-      <c r="C36" s="294"/>
+      <c r="B36" s="291"/>
+      <c r="C36" s="292"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="293"/>
-      <c r="C37" s="294"/>
+      <c r="B37" s="291"/>
+      <c r="C37" s="292"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="34"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="293"/>
-      <c r="C38" s="294"/>
+      <c r="B38" s="291"/>
+      <c r="C38" s="292"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="34"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="293"/>
-      <c r="C39" s="294"/>
+      <c r="B39" s="291"/>
+      <c r="C39" s="292"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="34"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="293"/>
-      <c r="C40" s="294"/>
+      <c r="B40" s="291"/>
+      <c r="C40" s="292"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="34"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="293"/>
-      <c r="C41" s="294"/>
+      <c r="B41" s="291"/>
+      <c r="C41" s="292"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="34"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="293"/>
-      <c r="C42" s="294"/>
+      <c r="B42" s="291"/>
+      <c r="C42" s="292"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="34"/>
     </row>
-    <row r="43" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B43" s="295"/>
-      <c r="C43" s="296"/>
+    <row r="43" spans="2:6" ht="14" thickBot="1">
+      <c r="B43" s="304"/>
+      <c r="C43" s="305"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="36"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="284" t="s">
+      <c r="B44" s="295" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="285"/>
-      <c r="D44" s="285"/>
-      <c r="E44" s="285"/>
-      <c r="F44" s="286"/>
+      <c r="C44" s="296"/>
+      <c r="D44" s="296"/>
+      <c r="E44" s="296"/>
+      <c r="F44" s="297"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="287"/>
-      <c r="C45" s="288"/>
-      <c r="D45" s="288"/>
-      <c r="E45" s="288"/>
-      <c r="F45" s="289"/>
+      <c r="B45" s="298"/>
+      <c r="C45" s="299"/>
+      <c r="D45" s="299"/>
+      <c r="E45" s="299"/>
+      <c r="F45" s="300"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="287"/>
-      <c r="C46" s="288"/>
-      <c r="D46" s="288"/>
-      <c r="E46" s="288"/>
-      <c r="F46" s="289"/>
+      <c r="B46" s="298"/>
+      <c r="C46" s="299"/>
+      <c r="D46" s="299"/>
+      <c r="E46" s="299"/>
+      <c r="F46" s="300"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="287" t="s">
+      <c r="B47" s="298" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="288"/>
-      <c r="D47" s="288"/>
-      <c r="E47" s="288"/>
-      <c r="F47" s="289"/>
-    </row>
-    <row r="48" spans="2:6" ht="13.5" thickBot="1">
-      <c r="B48" s="290" t="s">
+      <c r="C47" s="299"/>
+      <c r="D47" s="299"/>
+      <c r="E47" s="299"/>
+      <c r="F47" s="300"/>
+    </row>
+    <row r="48" spans="2:6" ht="14" thickBot="1">
+      <c r="B48" s="301" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="291"/>
-      <c r="D48" s="291"/>
-      <c r="E48" s="291"/>
-      <c r="F48" s="292"/>
+      <c r="C48" s="302"/>
+      <c r="D48" s="302"/>
+      <c r="E48" s="302"/>
+      <c r="F48" s="303"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B44:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
@@ -4550,13 +4511,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B44:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4566,138 +4520,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="209" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="209" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" style="209" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="256" customWidth="1"/>
-    <col min="5" max="16384" width="10.28515625" style="208"/>
+    <col min="1" max="1" width="21.5" style="209" customWidth="1"/>
+    <col min="2" max="2" width="43.5" style="209" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" style="209" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="208" customWidth="1"/>
+    <col min="5" max="16384" width="10.33203125" style="208"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A1" s="260"/>
-      <c r="B1" s="260"/>
-      <c r="C1" s="246"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="244"/>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A2" s="260"/>
-      <c r="B2" s="260"/>
-      <c r="C2" s="246"/>
+      <c r="A2" s="262"/>
+      <c r="B2" s="262"/>
+      <c r="C2" s="244"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A3" s="247"/>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
+      <c r="A3" s="245"/>
+      <c r="B3" s="246"/>
+      <c r="C3" s="246"/>
     </row>
     <row r="4" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A4" s="249" t="s">
+      <c r="A4" s="247" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="253" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="299"/>
+      <c r="C4" s="256"/>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="247" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="257">
+      <c r="B5" s="253">
         <v>45369</v>
       </c>
-      <c r="C5" s="299"/>
+      <c r="C5" s="256"/>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A6" s="249" t="s">
+      <c r="A6" s="247" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="254" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="300"/>
+      <c r="C6" s="257"/>
     </row>
     <row r="7" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="247" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="258" t="s">
+      <c r="B7" s="254" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="300"/>
+      <c r="C7" s="257"/>
     </row>
     <row r="8" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A8" s="249" t="s">
+      <c r="A8" s="247" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="258" t="s">
+      <c r="B8" s="254" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="300"/>
+      <c r="C8" s="257"/>
     </row>
     <row r="9" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A9" s="249" t="s">
+      <c r="A9" s="247" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="259" t="s">
+      <c r="B9" s="255" t="s">
         <v>287</v>
       </c>
-      <c r="C9" s="301"/>
+      <c r="C9" s="258"/>
     </row>
     <row r="10" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A10" s="249" t="s">
+      <c r="A10" s="247" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="258" t="s">
+      <c r="B10" s="254" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="300"/>
+      <c r="C10" s="257"/>
     </row>
     <row r="11" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A11" s="249" t="s">
+      <c r="A11" s="247" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="258" t="s">
+      <c r="B11" s="254" t="s">
         <v>292</v>
       </c>
-      <c r="C11" s="300"/>
+      <c r="C11" s="257"/>
     </row>
     <row r="12" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A12" s="250" t="s">
+      <c r="A12" s="248" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="258" t="s">
+      <c r="B12" s="254" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="300"/>
+      <c r="C12" s="257"/>
     </row>
     <row r="13" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A13" s="249" t="s">
+      <c r="A13" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="258" t="s">
+      <c r="B13" s="254" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="300"/>
+      <c r="C13" s="257"/>
     </row>
     <row r="14" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A14" s="249" t="s">
+      <c r="A14" s="247" t="s">
         <v>218</v>
       </c>
       <c r="B14" s="210" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="251"/>
     </row>
     <row r="15" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A15" s="249" t="s">
+      <c r="A15" s="247" t="s">
         <v>215</v>
       </c>
       <c r="B15" s="211" t="s">
@@ -4706,106 +4659,96 @@
       <c r="C15" s="210"/>
     </row>
     <row r="16" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A16" s="261" t="s">
+      <c r="A16" s="263" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="261"/>
+      <c r="B16" s="263"/>
       <c r="C16" s="210"/>
     </row>
     <row r="17" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A17" s="261" t="s">
+      <c r="A17" s="263" t="s">
         <v>293</v>
       </c>
-      <c r="B17" s="261"/>
-      <c r="C17" s="302"/>
+      <c r="B17" s="263"/>
+      <c r="C17" s="259"/>
     </row>
     <row r="18" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A18" s="308" t="s">
+      <c r="A18" s="265" t="s">
         <v>294</v>
       </c>
-      <c r="B18" s="308"/>
-      <c r="C18" s="302"/>
+      <c r="B18" s="265"/>
+      <c r="C18" s="259"/>
     </row>
     <row r="19" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A19" s="305"/>
-      <c r="B19" s="305"/>
-      <c r="C19" s="302"/>
+      <c r="A19" s="264"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="259"/>
     </row>
     <row r="20" spans="1:3" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A20" s="306" t="s">
+      <c r="A20" s="260" t="s">
         <v>216</v>
       </c>
-      <c r="B20" s="307"/>
-      <c r="C20" s="252"/>
+      <c r="B20" s="261"/>
+      <c r="C20" s="249"/>
     </row>
     <row r="21" spans="1:3" ht="22.5" customHeight="1" thickTop="1">
-      <c r="A21" s="309" t="s">
+      <c r="A21" s="266" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="309"/>
-      <c r="C21" s="248"/>
+      <c r="B21" s="266"/>
+      <c r="C21" s="246"/>
     </row>
     <row r="22" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A22" s="303"/>
-      <c r="B22" s="303"/>
-      <c r="C22" s="248"/>
+      <c r="A22" s="267"/>
+      <c r="B22" s="267"/>
+      <c r="C22" s="246"/>
     </row>
     <row r="23" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A23" s="303"/>
-      <c r="B23" s="303"/>
-      <c r="C23" s="248"/>
+      <c r="A23" s="267"/>
+      <c r="B23" s="267"/>
+      <c r="C23" s="246"/>
     </row>
     <row r="24" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A24" s="303"/>
-      <c r="B24" s="303"/>
-      <c r="C24" s="248"/>
+      <c r="A24" s="267"/>
+      <c r="B24" s="267"/>
+      <c r="C24" s="246"/>
     </row>
     <row r="25" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A25" s="303"/>
-      <c r="B25" s="303"/>
-      <c r="C25" s="248"/>
+      <c r="A25" s="267"/>
+      <c r="B25" s="267"/>
+      <c r="C25" s="246"/>
     </row>
     <row r="26" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A26" s="303"/>
-      <c r="B26" s="303"/>
-      <c r="C26" s="248"/>
+      <c r="A26" s="267"/>
+      <c r="B26" s="267"/>
+      <c r="C26" s="246"/>
     </row>
     <row r="27" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A27" s="303"/>
-      <c r="B27" s="303"/>
-      <c r="C27" s="248"/>
+      <c r="A27" s="267"/>
+      <c r="B27" s="267"/>
+      <c r="C27" s="246"/>
     </row>
     <row r="28" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A28" s="303"/>
-      <c r="B28" s="303"/>
-      <c r="C28" s="248"/>
+      <c r="A28" s="267"/>
+      <c r="B28" s="267"/>
+      <c r="C28" s="246"/>
     </row>
     <row r="29" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A29" s="304"/>
-      <c r="B29" s="304"/>
-      <c r="C29" s="248"/>
+      <c r="A29" s="268"/>
+      <c r="B29" s="268"/>
+      <c r="C29" s="246"/>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" thickTop="1">
-      <c r="A30" s="253" t="s">
+      <c r="A30" s="250" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="254"/>
-      <c r="C30" s="254"/>
+      <c r="B30" s="251"/>
+      <c r="C30" s="251"/>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1">
-      <c r="A31" s="255"/>
-      <c r="B31" s="255"/>
-      <c r="C31" s="255"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="251"/>
-      <c r="B32" s="251"/>
-      <c r="C32" s="251"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="251"/>
-      <c r="B33" s="251"/>
-      <c r="C33" s="251"/>
+      <c r="A31" s="252"/>
+      <c r="B31" s="252"/>
+      <c r="C31" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4828,7 +4771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet12">
     <tabColor indexed="57"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -4841,41 +4784,41 @@
       <selection pane="bottomLeft" activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="82" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="65" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="83" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="84" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="84" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="84" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="85" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="65" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="82" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="83" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="84" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="65" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="84" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="85" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="65" customWidth="1"/>
     <col min="11" max="11" width="14" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="65" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="65" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="65" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="65" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" style="86" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="86" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="86" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="86" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" style="86" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" style="86" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="65" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.6640625" style="86" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" style="86" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="86" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="86" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" style="86" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="86" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="14" style="86" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="86" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="86" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5" style="86" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" style="86" hidden="1" customWidth="1"/>
     <col min="28" max="29" width="12" style="65" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="16.85546875" style="65" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="11.140625" style="65" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" style="65" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" style="65" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="18.7109375" style="65" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="65"/>
+    <col min="30" max="30" width="16.83203125" style="65" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="11.1640625" style="65" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1640625" style="65" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="65" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="18.6640625" style="65" customWidth="1"/>
+    <col min="36" max="16384" width="9.1640625" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="21" customHeight="1">
@@ -4903,24 +4846,24 @@
       <c r="Q1" s="99"/>
       <c r="R1" s="99"/>
       <c r="S1" s="100"/>
-      <c r="T1" s="263" t="s">
+      <c r="T1" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="263"/>
-      <c r="V1" s="263"/>
-      <c r="W1" s="263"/>
-      <c r="X1" s="263"/>
-      <c r="Y1" s="263"/>
-      <c r="Z1" s="263"/>
-      <c r="AA1" s="263"/>
-      <c r="AB1" s="263"/>
-      <c r="AC1" s="263"/>
-      <c r="AD1" s="263"/>
-      <c r="AE1" s="263"/>
-      <c r="AF1" s="263"/>
-      <c r="AG1" s="263"/>
-      <c r="AH1" s="263"/>
-      <c r="AI1" s="263"/>
+      <c r="U1" s="270"/>
+      <c r="V1" s="270"/>
+      <c r="W1" s="270"/>
+      <c r="X1" s="270"/>
+      <c r="Y1" s="270"/>
+      <c r="Z1" s="270"/>
+      <c r="AA1" s="270"/>
+      <c r="AB1" s="270"/>
+      <c r="AC1" s="270"/>
+      <c r="AD1" s="270"/>
+      <c r="AE1" s="270"/>
+      <c r="AF1" s="270"/>
+      <c r="AG1" s="270"/>
+      <c r="AH1" s="270"/>
+      <c r="AI1" s="270"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="145" t="s">
@@ -4950,22 +4893,22 @@
       <c r="Q2" s="99"/>
       <c r="R2" s="99"/>
       <c r="S2" s="100"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="263"/>
-      <c r="AB2" s="263"/>
-      <c r="AC2" s="263"/>
-      <c r="AD2" s="263"/>
-      <c r="AE2" s="263"/>
-      <c r="AF2" s="263"/>
-      <c r="AG2" s="263"/>
-      <c r="AH2" s="263"/>
-      <c r="AI2" s="263"/>
+      <c r="T2" s="270"/>
+      <c r="U2" s="270"/>
+      <c r="V2" s="270"/>
+      <c r="W2" s="270"/>
+      <c r="X2" s="270"/>
+      <c r="Y2" s="270"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="270"/>
+      <c r="AB2" s="270"/>
+      <c r="AC2" s="270"/>
+      <c r="AD2" s="270"/>
+      <c r="AE2" s="270"/>
+      <c r="AF2" s="270"/>
+      <c r="AG2" s="270"/>
+      <c r="AH2" s="270"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="3" t="s">
@@ -4993,35 +4936,35 @@
       <c r="Q3" s="105"/>
       <c r="R3" s="105"/>
       <c r="S3" s="103"/>
-      <c r="T3" s="264"/>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="264"/>
-      <c r="Z3" s="264"/>
-      <c r="AA3" s="264"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="264"/>
-      <c r="AD3" s="264"/>
-      <c r="AE3" s="264"/>
-      <c r="AF3" s="264"/>
-      <c r="AG3" s="264"/>
-      <c r="AH3" s="264"/>
-      <c r="AI3" s="264"/>
+      <c r="T3" s="271"/>
+      <c r="U3" s="271"/>
+      <c r="V3" s="271"/>
+      <c r="W3" s="271"/>
+      <c r="X3" s="271"/>
+      <c r="Y3" s="271"/>
+      <c r="Z3" s="271"/>
+      <c r="AA3" s="271"/>
+      <c r="AB3" s="271"/>
+      <c r="AC3" s="271"/>
+      <c r="AD3" s="271"/>
+      <c r="AE3" s="271"/>
+      <c r="AF3" s="271"/>
+      <c r="AG3" s="271"/>
+      <c r="AH3" s="271"/>
+      <c r="AI3" s="271"/>
     </row>
     <row r="4" spans="1:35" s="4" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="262" t="e">
+      <c r="A4" s="269" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B4" s="262"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262" t="e">
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="269" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="262"/>
+      <c r="E4" s="269"/>
       <c r="F4" s="92"/>
       <c r="G4" s="106" t="s">
         <v>94</v>
@@ -5038,32 +4981,32 @@
       <c r="Q4" s="99"/>
       <c r="R4" s="99"/>
       <c r="S4" s="100"/>
-      <c r="T4" s="265" t="s">
+      <c r="T4" s="272" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="266"/>
-      <c r="V4" s="267"/>
-      <c r="W4" s="268" t="s">
+      <c r="U4" s="273"/>
+      <c r="V4" s="274"/>
+      <c r="W4" s="275" t="s">
         <v>96</v>
       </c>
-      <c r="X4" s="269"/>
-      <c r="Y4" s="270"/>
-      <c r="Z4" s="271" t="s">
+      <c r="X4" s="276"/>
+      <c r="Y4" s="277"/>
+      <c r="Z4" s="278" t="s">
         <v>81</v>
       </c>
-      <c r="AA4" s="272"/>
-      <c r="AB4" s="273"/>
-      <c r="AC4" s="274" t="s">
+      <c r="AA4" s="279"/>
+      <c r="AB4" s="280"/>
+      <c r="AC4" s="281" t="s">
         <v>97</v>
       </c>
-      <c r="AD4" s="275"/>
-      <c r="AE4" s="275"/>
-      <c r="AF4" s="276"/>
-      <c r="AG4" s="276"/>
-      <c r="AH4" s="277"/>
+      <c r="AD4" s="282"/>
+      <c r="AE4" s="282"/>
+      <c r="AF4" s="283"/>
+      <c r="AG4" s="283"/>
+      <c r="AH4" s="284"/>
       <c r="AI4" s="14"/>
     </row>
-    <row r="5" spans="1:35" s="4" customFormat="1" ht="45.75" thickTop="1">
+    <row r="5" spans="1:35" s="4" customFormat="1" ht="49" thickTop="1">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -5320,7 +5263,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="Date required_x000a_Use MM/DD/YY Formatting" sqref="R7">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="Date required_x000a_Use MM/DD/YY Formatting" sqref="R7" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>36892</formula1>
     </dataValidation>
   </dataValidations>
@@ -5334,7 +5277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5">
     <tabColor indexed="10"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5345,37 +5288,37 @@
       <selection activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="154.85546875" customWidth="1"/>
+    <col min="1" max="1" width="154.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="14">
       <c r="A1" s="182" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="14">
       <c r="A2" s="183" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="14">
       <c r="A3" s="183" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="14">
       <c r="A4" s="49" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="14">
       <c r="A5" s="49" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" ht="14">
       <c r="A6" s="184" t="s">
         <v>148</v>
       </c>
@@ -5383,12 +5326,12 @@
     <row r="7" spans="1:1">
       <c r="A7" s="15"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" ht="14">
       <c r="A8" s="155" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="25.5">
+    <row r="9" spans="1:1" ht="28">
       <c r="A9" s="185" t="s">
         <v>150</v>
       </c>
@@ -5401,22 +5344,22 @@
     <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="14">
       <c r="A12" s="158" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" ht="14">
       <c r="A13" s="186" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" ht="14">
       <c r="A14" s="49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" ht="14">
       <c r="A15" s="49" t="s">
         <v>155</v>
       </c>
@@ -5424,12 +5367,12 @@
     <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="14">
       <c r="A17" s="187" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" ht="14">
       <c r="A18" s="183" t="s">
         <v>157</v>
       </c>
@@ -5442,7 +5385,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="14">
       <c r="A21" s="189" t="s">
         <v>158</v>
       </c>
@@ -5492,32 +5435,32 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" ht="14">
       <c r="A32" s="189" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" ht="14">
       <c r="A33" s="189" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="25.5">
+    <row r="34" spans="1:1" ht="28">
       <c r="A34" s="193" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" ht="14">
       <c r="A35" s="193" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" ht="14">
       <c r="A36" s="193" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" ht="14">
       <c r="A37" s="193" t="s">
         <v>166</v>
       </c>
@@ -5527,137 +5470,137 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" ht="14">
       <c r="A40" s="195" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="25.5">
+    <row r="41" spans="1:1" ht="28">
       <c r="A41" s="196" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" ht="14">
       <c r="A42" s="197" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" ht="14">
       <c r="A43" s="197" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" ht="14">
       <c r="A44" s="198" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" ht="14">
       <c r="A45" s="198" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" ht="14">
       <c r="A46" s="198" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" ht="14">
       <c r="A47" s="198" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" ht="14">
       <c r="A48" s="198" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" ht="14">
       <c r="A49" s="198" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" ht="14">
       <c r="A50" s="198" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" ht="14">
       <c r="A51" s="198" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" ht="14">
       <c r="A52" s="198" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" ht="14">
       <c r="A53" s="198" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" ht="14">
       <c r="A54" s="198" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" ht="14">
       <c r="A55" s="198" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" ht="14">
       <c r="A56" s="198" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" ht="14">
       <c r="A57" s="198" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" ht="14">
       <c r="A58" s="198" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" ht="14">
       <c r="A59" s="198" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" ht="14">
       <c r="A60" s="198" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" ht="14">
       <c r="A61" s="197" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" ht="14">
       <c r="A62" s="196" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" ht="14">
       <c r="A63" s="197" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" ht="14">
       <c r="A64" s="197" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" ht="14">
       <c r="A65" s="197" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" ht="14">
       <c r="A66" s="197" t="s">
         <v>194</v>
       </c>
@@ -5679,8 +5622,8 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1"/>
-    <hyperlink ref="A26" r:id="rId2"/>
+    <hyperlink ref="A24" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A26" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId3"/>
@@ -5692,7 +5635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet7">
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
@@ -5704,36 +5647,36 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="65" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="83" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="83" customWidth="1"/>
     <col min="4" max="4" width="8" style="65" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="84" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="84" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="84" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="85" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="65" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="84" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="65" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="84" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="85" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="65" customWidth="1"/>
     <col min="11" max="11" width="14" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="65" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="65" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="65" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="65" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.7109375" style="86" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="86" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" style="65"/>
-    <col min="26" max="26" width="10.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" style="65"/>
-    <col min="30" max="30" width="10.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="65"/>
-    <col min="32" max="32" width="18.7109375" style="65" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="65"/>
+    <col min="16" max="16" width="13.1640625" style="65" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.6640625" style="86" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" style="86" customWidth="1"/>
+    <col min="21" max="21" width="6.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="9.1640625" style="65"/>
+    <col min="26" max="26" width="10.83203125" style="65" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="9.1640625" style="65"/>
+    <col min="30" max="30" width="10.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" style="65"/>
+    <col min="32" max="32" width="18.6640625" style="65" customWidth="1"/>
+    <col min="33" max="16384" width="9.1640625" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="2" customFormat="1" ht="15" customHeight="1">
@@ -5759,21 +5702,21 @@
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="278" t="s">
+      <c r="T1" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="278"/>
-      <c r="V1" s="278"/>
-      <c r="W1" s="278"/>
-      <c r="X1" s="278"/>
-      <c r="Y1" s="278"/>
-      <c r="Z1" s="278"/>
-      <c r="AA1" s="278"/>
-      <c r="AB1" s="278"/>
-      <c r="AC1" s="278"/>
-      <c r="AD1" s="278"/>
-      <c r="AE1" s="278"/>
-      <c r="AF1" s="278"/>
+      <c r="U1" s="285"/>
+      <c r="V1" s="285"/>
+      <c r="W1" s="285"/>
+      <c r="X1" s="285"/>
+      <c r="Y1" s="285"/>
+      <c r="Z1" s="285"/>
+      <c r="AA1" s="285"/>
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="285"/>
+      <c r="AD1" s="285"/>
+      <c r="AE1" s="285"/>
+      <c r="AF1" s="285"/>
     </row>
     <row r="2" spans="1:32" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -5798,19 +5741,19 @@
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-      <c r="W2" s="278"/>
-      <c r="X2" s="278"/>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="278"/>
-      <c r="AA2" s="278"/>
-      <c r="AB2" s="278"/>
-      <c r="AC2" s="278"/>
-      <c r="AD2" s="278"/>
-      <c r="AE2" s="278"/>
-      <c r="AF2" s="278"/>
+      <c r="T2" s="285"/>
+      <c r="U2" s="285"/>
+      <c r="V2" s="285"/>
+      <c r="W2" s="285"/>
+      <c r="X2" s="285"/>
+      <c r="Y2" s="285"/>
+      <c r="Z2" s="285"/>
+      <c r="AA2" s="285"/>
+      <c r="AB2" s="285"/>
+      <c r="AC2" s="285"/>
+      <c r="AD2" s="285"/>
+      <c r="AE2" s="285"/>
+      <c r="AF2" s="285"/>
     </row>
     <row r="3" spans="1:32" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -5837,32 +5780,32 @@
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="278"/>
-      <c r="U3" s="278"/>
-      <c r="V3" s="278"/>
-      <c r="W3" s="278"/>
-      <c r="X3" s="278"/>
-      <c r="Y3" s="278"/>
-      <c r="Z3" s="278"/>
-      <c r="AA3" s="278"/>
-      <c r="AB3" s="278"/>
-      <c r="AC3" s="278"/>
-      <c r="AD3" s="278"/>
-      <c r="AE3" s="278"/>
-      <c r="AF3" s="278"/>
+      <c r="T3" s="285"/>
+      <c r="U3" s="285"/>
+      <c r="V3" s="285"/>
+      <c r="W3" s="285"/>
+      <c r="X3" s="285"/>
+      <c r="Y3" s="285"/>
+      <c r="Z3" s="285"/>
+      <c r="AA3" s="285"/>
+      <c r="AB3" s="285"/>
+      <c r="AC3" s="285"/>
+      <c r="AD3" s="285"/>
+      <c r="AE3" s="285"/>
+      <c r="AF3" s="285"/>
     </row>
     <row r="4" spans="1:32" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="262" t="e">
+      <c r="A4" s="269" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B4" s="262"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262" t="e">
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="269" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="262"/>
+      <c r="E4" s="269"/>
       <c r="F4" s="3"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -5877,21 +5820,21 @@
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="279"/>
-      <c r="U4" s="279"/>
-      <c r="V4" s="279"/>
-      <c r="W4" s="279"/>
-      <c r="X4" s="279"/>
-      <c r="Y4" s="279"/>
-      <c r="Z4" s="279"/>
-      <c r="AA4" s="279"/>
-      <c r="AB4" s="279"/>
-      <c r="AC4" s="279"/>
-      <c r="AD4" s="279"/>
-      <c r="AE4" s="279"/>
-      <c r="AF4" s="279"/>
-    </row>
-    <row r="5" spans="1:32" s="28" customFormat="1" ht="45.75" thickTop="1">
+      <c r="T4" s="286"/>
+      <c r="U4" s="286"/>
+      <c r="V4" s="286"/>
+      <c r="W4" s="286"/>
+      <c r="X4" s="286"/>
+      <c r="Y4" s="286"/>
+      <c r="Z4" s="286"/>
+      <c r="AA4" s="286"/>
+      <c r="AB4" s="286"/>
+      <c r="AC4" s="286"/>
+      <c r="AD4" s="286"/>
+      <c r="AE4" s="286"/>
+      <c r="AF4" s="286"/>
+    </row>
+    <row r="5" spans="1:32" s="28" customFormat="1" ht="49" thickTop="1">
       <c r="A5" s="11" t="s">
         <v>79</v>
       </c>
@@ -6118,7 +6061,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="Date required_x000a_Use MM/DD/YY Formatting" sqref="R7">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="Date required_x000a_Use MM/DD/YY Formatting" sqref="R7" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>36892</formula1>
     </dataValidation>
   </dataValidations>
@@ -6132,7 +6075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor indexed="56"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6143,26 +6086,26 @@
       <selection activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+    </row>
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="200" t="s">
         <v>23</v>
       </c>
@@ -6174,7 +6117,7 @@
       <c r="E2" s="202"/>
       <c r="F2" s="202"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="202"/>
       <c r="B3" s="201" t="s">
         <v>121</v>
@@ -6184,7 +6127,7 @@
       <c r="E3" s="202"/>
       <c r="F3" s="202"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="202"/>
       <c r="B4" s="201" t="s">
         <v>84</v>
@@ -6194,7 +6137,7 @@
       <c r="E4" s="202"/>
       <c r="F4" s="202"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="202"/>
       <c r="B5" s="201"/>
       <c r="C5" s="202"/>
@@ -6202,7 +6145,7 @@
       <c r="E5" s="202"/>
       <c r="F5" s="202"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="202"/>
       <c r="B6" s="202"/>
       <c r="C6" s="202"/>
@@ -6210,7 +6153,7 @@
       <c r="E6" s="202"/>
       <c r="F6" s="202"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="202"/>
       <c r="B7" s="202"/>
       <c r="C7" s="202"/>
@@ -6218,7 +6161,7 @@
       <c r="E7" s="202"/>
       <c r="F7" s="202"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="203" t="s">
         <v>15</v>
       </c>
@@ -6234,7 +6177,7 @@
       <c r="E8" s="202"/>
       <c r="F8" s="202"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="204" t="s">
         <v>137</v>
       </c>
@@ -6265,7 +6208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -6273,26 +6216,26 @@
       <selection activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+    </row>
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="200" t="s">
         <v>23</v>
       </c>
@@ -6304,7 +6247,7 @@
       <c r="E2" s="202"/>
       <c r="F2" s="202"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="202"/>
       <c r="B3" s="201" t="s">
         <v>197</v>
@@ -6314,7 +6257,7 @@
       <c r="E3" s="202"/>
       <c r="F3" s="202"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="202"/>
       <c r="B4" s="201" t="s">
         <v>198</v>
@@ -6324,7 +6267,7 @@
       <c r="E4" s="202"/>
       <c r="F4" s="202"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="202"/>
       <c r="B5" s="201" t="s">
         <v>199</v>
@@ -6334,7 +6277,7 @@
       <c r="E5" s="202"/>
       <c r="F5" s="202"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="14">
       <c r="A6" s="202"/>
       <c r="B6" s="202" t="s">
         <v>200</v>
@@ -6344,7 +6287,7 @@
       <c r="E6" s="202"/>
       <c r="F6" s="202"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="14">
       <c r="A7" s="202"/>
       <c r="B7" s="202"/>
       <c r="C7" s="202"/>
@@ -6352,7 +6295,7 @@
       <c r="E7" s="202"/>
       <c r="F7" s="202"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="14">
       <c r="A8" s="203" t="s">
         <v>15</v>
       </c>
@@ -6368,7 +6311,7 @@
       <c r="E8" s="202"/>
       <c r="F8" s="202"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="14">
       <c r="A9" s="204" t="s">
         <v>137</v>
       </c>
@@ -6394,7 +6337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -6404,17 +6347,17 @@
       <selection activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5">
+    <row r="1" spans="1:6" ht="20">
       <c r="A1" s="159"/>
       <c r="B1" s="177" t="s">
         <v>134</v>
@@ -6425,7 +6368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="14">
       <c r="A2" s="162"/>
       <c r="B2" s="207" t="s">
         <v>83</v>
@@ -6458,7 +6401,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" thickBot="1">
+    <row r="5" spans="1:6" ht="14" thickBot="1">
       <c r="A5" s="164" t="s">
         <v>30</v>
       </c>
@@ -6477,7 +6420,7 @@
       <c r="C6" s="206"/>
       <c r="D6" s="181"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1">
+    <row r="7" spans="1:6" ht="14" thickBot="1">
       <c r="A7" s="164"/>
       <c r="B7" s="206"/>
       <c r="C7" s="206"/>
@@ -6521,13 +6464,13 @@
       <c r="C12" s="166"/>
       <c r="D12" s="178"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="14">
       <c r="A13" s="173"/>
       <c r="B13" s="171"/>
       <c r="C13" s="166"/>
       <c r="D13" s="178"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="14">
       <c r="A14" s="173"/>
       <c r="B14" s="171"/>
       <c r="C14" s="166"/>
@@ -6653,7 +6596,7 @@
       <c r="C34" s="166"/>
       <c r="D34" s="178"/>
     </row>
-    <row r="35" spans="1:4" ht="13.5" thickBot="1">
+    <row r="35" spans="1:4" ht="14" thickBot="1">
       <c r="A35" s="175"/>
       <c r="B35" s="176"/>
       <c r="C35" s="176"/>
@@ -6667,7 +6610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet4">
     <tabColor indexed="56"/>
   </sheetPr>
@@ -6677,31 +6620,31 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
       <c r="G1" s="127"/>
       <c r="H1" s="127"/>
       <c r="I1" s="127"/>
       <c r="J1" s="127"/>
       <c r="K1" s="127"/>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="128" t="s">
         <v>73</v>
       </c>
@@ -6835,7 +6778,7 @@
       <c r="J11" s="127"/>
       <c r="K11" s="127"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
+    <row r="14" spans="1:11" ht="16">
       <c r="A14" s="131" t="s">
         <v>23</v>
       </c>
@@ -6852,7 +6795,7 @@
       <c r="J14" s="138"/>
       <c r="K14" s="127"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11" ht="16">
       <c r="A15" s="131"/>
       <c r="B15" s="149" t="s">
         <v>122</v>
@@ -6867,7 +6810,7 @@
       <c r="J15" s="138"/>
       <c r="K15" s="127"/>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:11" ht="14">
       <c r="A16" s="127"/>
       <c r="B16" s="150" t="s">
         <v>124</v>
@@ -6882,7 +6825,7 @@
       <c r="J16" s="140"/>
       <c r="K16" s="139"/>
     </row>
-    <row r="17" spans="1:11" ht="15">
+    <row r="17" spans="1:11" ht="14">
       <c r="A17" s="127"/>
       <c r="B17" s="150" t="s">
         <v>123</v>
@@ -6897,7 +6840,7 @@
       <c r="J17" s="140"/>
       <c r="K17" s="139"/>
     </row>
-    <row r="18" spans="1:11" ht="15">
+    <row r="18" spans="1:11" ht="14">
       <c r="A18" s="127"/>
       <c r="B18" s="150" t="s">
         <v>125</v>
@@ -6912,7 +6855,7 @@
       <c r="J18" s="139"/>
       <c r="K18" s="139"/>
     </row>
-    <row r="19" spans="1:11" ht="15">
+    <row r="19" spans="1:11" ht="14">
       <c r="A19" s="127"/>
       <c r="B19" s="151" t="s">
         <v>130</v>
@@ -6927,7 +6870,7 @@
       <c r="J19" s="139"/>
       <c r="K19" s="139"/>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:11" ht="14">
       <c r="A20" s="127"/>
       <c r="B20" s="150" t="s">
         <v>81</v>
@@ -6942,7 +6885,7 @@
       <c r="J20" s="139"/>
       <c r="K20" s="139"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:11" ht="16">
       <c r="A21" s="131"/>
       <c r="B21" s="152" t="s">
         <v>131</v>
@@ -6957,7 +6900,7 @@
       <c r="J21" s="127"/>
       <c r="K21" s="127"/>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11" ht="14">
       <c r="A22" s="127"/>
       <c r="E22" s="127"/>
       <c r="F22" s="140"/>
@@ -6967,7 +6910,7 @@
       <c r="J22" s="127"/>
       <c r="K22" s="127"/>
     </row>
-    <row r="23" spans="1:11" ht="15">
+    <row r="23" spans="1:11" ht="14">
       <c r="A23" s="127"/>
       <c r="E23" s="127"/>
       <c r="F23" s="140"/>
@@ -6977,7 +6920,7 @@
       <c r="J23" s="127"/>
       <c r="K23" s="127"/>
     </row>
-    <row r="24" spans="1:11" ht="15">
+    <row r="24" spans="1:11" ht="14">
       <c r="A24" s="127"/>
       <c r="E24" s="127"/>
       <c r="F24" s="139"/>
@@ -6987,7 +6930,7 @@
       <c r="J24" s="127"/>
       <c r="K24" s="127"/>
     </row>
-    <row r="25" spans="1:11" ht="15">
+    <row r="25" spans="1:11" ht="14">
       <c r="A25" s="127"/>
       <c r="E25" s="127"/>
       <c r="F25" s="139"/>
@@ -6997,7 +6940,7 @@
       <c r="J25" s="127"/>
       <c r="K25" s="127"/>
     </row>
-    <row r="26" spans="1:11" ht="15">
+    <row r="26" spans="1:11" ht="14">
       <c r="A26" s="127"/>
       <c r="E26" s="127"/>
       <c r="F26" s="139"/>
@@ -7007,7 +6950,7 @@
       <c r="J26" s="127"/>
       <c r="K26" s="127"/>
     </row>
-    <row r="27" spans="1:11" ht="15">
+    <row r="27" spans="1:11" ht="14">
       <c r="A27" s="127"/>
       <c r="E27" s="127"/>
       <c r="F27" s="139"/>
@@ -7017,7 +6960,7 @@
       <c r="J27" s="127"/>
       <c r="K27" s="127"/>
     </row>
-    <row r="28" spans="1:11" ht="15">
+    <row r="28" spans="1:11" ht="14">
       <c r="A28" s="127"/>
       <c r="E28" s="127"/>
       <c r="F28" s="139"/>

--- a/NWhangtag上傳用檔案.xlsx
+++ b/NWhangtag上傳用檔案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peggy.huang/Desktop/peggy/rou94980-HangtagChangePage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8203CDFB-8877-594A-AC22-1B48F2E99DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA84FBB-55C0-E148-BF1F-8947A84D00D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46820" yWindow="6360" windowWidth="29040" windowHeight="15840" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46820" yWindow="5760" windowWidth="29040" windowHeight="15840" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dodgeville" sheetId="22" r:id="rId1"/>
@@ -2895,14 +2895,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2924,8 +2916,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3182,13 +3182,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1227668</xdr:colOff>
+      <xdr:colOff>1243425</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1972735</xdr:colOff>
+      <xdr:colOff>1956977</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>80433</xdr:rowOff>
     </xdr:to>
@@ -3206,15 +3206,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1227668" y="42333"/>
-          <a:ext cx="2374900" cy="673100"/>
+          <a:off x="1243425" y="42333"/>
+          <a:ext cx="2343385" cy="673100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4362,10 +4367,10 @@
       <c r="F31" s="44"/>
     </row>
     <row r="32" spans="2:6" ht="28">
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="304" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="294"/>
+      <c r="C32" s="305"/>
       <c r="D32" s="37" t="s">
         <v>57</v>
       </c>
@@ -4377,132 +4382,125 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="291"/>
-      <c r="C33" s="292"/>
+      <c r="B33" s="300"/>
+      <c r="C33" s="301"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="34"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="291"/>
-      <c r="C34" s="292"/>
+      <c r="B34" s="300"/>
+      <c r="C34" s="301"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="34"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="291"/>
-      <c r="C35" s="292"/>
+      <c r="B35" s="300"/>
+      <c r="C35" s="301"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="34"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="291"/>
-      <c r="C36" s="292"/>
+      <c r="B36" s="300"/>
+      <c r="C36" s="301"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="291"/>
-      <c r="C37" s="292"/>
+      <c r="B37" s="300"/>
+      <c r="C37" s="301"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="34"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="291"/>
-      <c r="C38" s="292"/>
+      <c r="B38" s="300"/>
+      <c r="C38" s="301"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="34"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="291"/>
-      <c r="C39" s="292"/>
+      <c r="B39" s="300"/>
+      <c r="C39" s="301"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="34"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="291"/>
-      <c r="C40" s="292"/>
+      <c r="B40" s="300"/>
+      <c r="C40" s="301"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="34"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="291"/>
-      <c r="C41" s="292"/>
+      <c r="B41" s="300"/>
+      <c r="C41" s="301"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="34"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="291"/>
-      <c r="C42" s="292"/>
+      <c r="B42" s="300"/>
+      <c r="C42" s="301"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="34"/>
     </row>
     <row r="43" spans="2:6" ht="14" thickBot="1">
-      <c r="B43" s="304"/>
-      <c r="C43" s="305"/>
+      <c r="B43" s="302"/>
+      <c r="C43" s="303"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="36"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="295" t="s">
+      <c r="B44" s="291" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="296"/>
-      <c r="D44" s="296"/>
-      <c r="E44" s="296"/>
-      <c r="F44" s="297"/>
+      <c r="C44" s="292"/>
+      <c r="D44" s="292"/>
+      <c r="E44" s="292"/>
+      <c r="F44" s="293"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="298"/>
-      <c r="C45" s="299"/>
-      <c r="D45" s="299"/>
-      <c r="E45" s="299"/>
-      <c r="F45" s="300"/>
+      <c r="B45" s="294"/>
+      <c r="C45" s="295"/>
+      <c r="D45" s="295"/>
+      <c r="E45" s="295"/>
+      <c r="F45" s="296"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="298"/>
-      <c r="C46" s="299"/>
-      <c r="D46" s="299"/>
-      <c r="E46" s="299"/>
-      <c r="F46" s="300"/>
+      <c r="B46" s="294"/>
+      <c r="C46" s="295"/>
+      <c r="D46" s="295"/>
+      <c r="E46" s="295"/>
+      <c r="F46" s="296"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="298" t="s">
+      <c r="B47" s="294" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="299"/>
-      <c r="D47" s="299"/>
-      <c r="E47" s="299"/>
-      <c r="F47" s="300"/>
+      <c r="C47" s="295"/>
+      <c r="D47" s="295"/>
+      <c r="E47" s="295"/>
+      <c r="F47" s="296"/>
     </row>
     <row r="48" spans="2:6" ht="14" thickBot="1">
-      <c r="B48" s="301" t="s">
+      <c r="B48" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="302"/>
-      <c r="D48" s="302"/>
-      <c r="E48" s="302"/>
-      <c r="F48" s="303"/>
+      <c r="C48" s="298"/>
+      <c r="D48" s="298"/>
+      <c r="E48" s="298"/>
+      <c r="F48" s="299"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B44:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
@@ -4511,6 +4509,13 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B44:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
